--- a/研一/算法设计与分析/算法实验/实验3/result.xlsx
+++ b/研一/算法设计与分析/算法实验/实验3/result.xlsx
@@ -156,8 +156,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -171,10 +181,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -184,6 +204,3096 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>100</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>动态规划算法</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.96306610107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.39009475708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.9300613403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.268989563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.3068675995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>近似算法</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.956058502197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.10197067261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.13582611084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.46508216858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.67798995972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1201373024"/>
+        <c:axId val="-2041418576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1201373024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2041418576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2041418576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1201373024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>动态规划算法</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31.763792038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.4388618469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.491090775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>209.264039993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300.132036209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>近似算法</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>79.5080661774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.9909992218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.518983841</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.549980164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.764806747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1374285088"/>
+        <c:axId val="-1197394720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1374285088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1197394720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1197394720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1374285088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>10000</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>动态规划算法</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$B$43:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$44:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>349.41983223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>790.591001511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1328.83882523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2282.41205215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3018.71609688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>近似算法</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$B$43:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$45:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8587.47506142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10234.0049744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12077.8717995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14230.435133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14115.3879166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1200837088"/>
+        <c:axId val="-1198862816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1200837088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1198862816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1198862816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1200837088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -895,5 +4005,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>